--- a/tests/fixtures/standards.xlsx
+++ b/tests/fixtures/standards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devan/Workspace/technogen/eloader/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devan/Workspace/technogen/eloader/tests/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BAC1E2-AAD1-574B-8657-F95F023BFA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167A6EAC-D1D5-9D46-BCCD-7469853A1418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="20" windowWidth="35460" windowHeight="22640" xr2:uid="{01599A22-E37B-964D-8138-AF92B030A194}"/>
+    <workbookView xWindow="15000" yWindow="0" windowWidth="35460" windowHeight="22640" xr2:uid="{01599A22-E37B-964D-8138-AF92B030A194}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard Details" sheetId="2" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Select the system</t>
   </si>
@@ -302,7 +302,10 @@
     <t>mm2</t>
   </si>
   <si>
-    <t>TBA</t>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>Users\Ashish Gahalan\Documents\240920</t>
   </si>
 </sst>
 </file>
@@ -755,18 +758,84 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -778,72 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1953,8 +1956,8 @@
   </sheetPr>
   <dimension ref="A1:AI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="130" zoomScaleNormal="90" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="130" zoomScaleNormal="90" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1999,13 +2002,13 @@
       <c r="AI1" s="4"/>
     </row>
     <row r="2" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2045,22 +2048,22 @@
       <c r="AI3" s="4"/>
     </row>
     <row r="4" spans="1:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
       <c r="M4" s="1"/>
       <c r="AE4" s="3" t="s">
         <v>8</v>
@@ -2073,22 +2076,22 @@
       <c r="AI4" s="4"/>
     </row>
     <row r="5" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
       <c r="M5" s="1"/>
       <c r="AE5" s="6" t="s">
         <v>12</v>
@@ -2098,50 +2101,50 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="18.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:35" ht="18.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:35" ht="18.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="8" t="s">
         <v>61</v>
       </c>
@@ -2155,14 +2158,14 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="8" t="s">
-        <v>61</v>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="8">
+        <v>240920</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2174,14 +2177,14 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="43"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2208,13 +2211,13 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -2225,12 +2228,12 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="5" t="s">
         <v>23</v>
       </c>
@@ -2244,12 +2247,12 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="8" t="s">
         <v>25</v>
       </c>
@@ -2263,12 +2266,12 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="8" t="s">
         <v>25</v>
       </c>
@@ -2282,12 +2285,12 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="43"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="8" t="s">
         <v>28</v>
       </c>
@@ -2316,13 +2319,13 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2333,12 +2336,12 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="9" t="s">
         <v>31</v>
       </c>
@@ -2352,12 +2355,12 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="10" t="s">
         <v>33</v>
       </c>
@@ -2371,12 +2374,12 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="10" t="s">
         <v>35</v>
       </c>
@@ -2390,12 +2393,12 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="11">
         <f ca="1">TODAY()</f>
         <v>44099</v>
@@ -2410,12 +2413,12 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="10" t="s">
         <v>38</v>
       </c>
@@ -2429,12 +2432,12 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="43"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="11">
         <f ca="1">E24</f>
         <v>44099</v>
@@ -2479,13 +2482,13 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2547,10 +2550,10 @@
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="33"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="18" t="s">
         <v>45</v>
       </c>
@@ -2566,8 +2569,8 @@
       <c r="M33" s="20"/>
     </row>
     <row r="34" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="21" t="s">
         <v>46</v>
       </c>
@@ -2598,13 +2601,13 @@
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2615,12 +2618,12 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="39"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="24">
         <v>0</v>
       </c>
@@ -2636,12 +2639,12 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="42"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="10">
         <v>3</v>
       </c>
@@ -2657,12 +2660,12 @@
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="43"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="10">
         <v>45</v>
       </c>
@@ -2708,13 +2711,13 @@
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2725,10 +2728,10 @@
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="10">
         <v>37</v>
       </c>
@@ -2750,10 +2753,10 @@
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="31"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="10">
         <v>370</v>
       </c>
@@ -2876,6 +2879,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -2888,26 +2911,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
